--- a/PythonResources/Data/Consumption/Sympheny/futu_CD_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CD_hea.xlsx
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>476.321911573434</v>
+        <v>476.3219115734339</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>308.4798346610429</v>
+        <v>308.4798346610428</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>265.369084873959</v>
+        <v>265.3690848739589</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>242.6929184072645</v>
+        <v>242.6929184072644</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>274.9052061725451</v>
+        <v>274.905206172545</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>325.6549698107524</v>
+        <v>325.6549698107523</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -999,7 +999,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>246.0325508141221</v>
+        <v>246.032550814122</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>189.0823506172956</v>
+        <v>189.0823506172955</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>216.555336794307</v>
+        <v>216.5553367943069</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>226.5657994303872</v>
+        <v>226.5657994303871</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>180.8198779534967</v>
+        <v>180.8198779534966</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>89.67487285112989</v>
+        <v>89.67487285112988</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>166.0563511131718</v>
+        <v>166.0563511131717</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>422.3599135088751</v>
+        <v>422.359913508875</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>661.5996637889045</v>
+        <v>661.5996637889044</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>470.5794776419036</v>
+        <v>470.5794776419035</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>252.9508736740734</v>
+        <v>252.9508736740733</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>363.981510734313</v>
+        <v>363.9815107343129</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>642.7616435658306</v>
+        <v>642.7616435658305</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>319.1350184136534</v>
+        <v>319.1350184136533</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>66.8952317928152</v>
+        <v>66.89523179281518</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>21.38502149089927</v>
+        <v>21.38502149089926</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>4.590597929394498</v>
+        <v>4.590597929394497</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>85.9283054456702</v>
+        <v>85.92830544567019</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>182.4947789394463</v>
+        <v>182.4947789394462</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>69.3233781009114</v>
+        <v>69.32337810091138</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>90.05765293472547</v>
+        <v>90.05765293472545</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>30.78172010426296</v>
+        <v>30.78172010426295</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>7.553993942807773</v>
+        <v>7.553993942807772</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>4.064309164155537</v>
+        <v>4.064309164155536</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>67.37029115435408</v>
+        <v>67.37029115435406</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>115.6712704219227</v>
+        <v>115.6712704219226</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>250.2120955106793</v>
+        <v>250.2120955106792</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>322.9730767359624</v>
+        <v>322.9730767359623</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>333.7670296253791</v>
+        <v>333.767029625379</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>370.0490776761343</v>
+        <v>370.0490776761342</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>89.02914943164734</v>
+        <v>89.02914943164733</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>280.881334950304</v>
+        <v>280.8813349503039</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>330.7678871512382</v>
+        <v>330.7678871512381</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>361.070846406744</v>
+        <v>361.0708464067439</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>394.095263327259</v>
+        <v>394.0952633272589</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>250.5572745800146</v>
+        <v>250.5572745800145</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>228.8506750305234</v>
+        <v>228.8506750305233</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>196.3140484774667</v>
+        <v>196.3140484774666</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>300.6101445953891</v>
+        <v>300.610144595389</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>555.6902379795449</v>
+        <v>555.6902379795448</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>238.6148085278984</v>
+        <v>238.6148085278983</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>275.1371718996455</v>
+        <v>275.1371718996454</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>330.0475185382086</v>
+        <v>330.0475185382085</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>50.59440668061295</v>
+        <v>50.59440668061294</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>63.33179861799422</v>
+        <v>63.33179861799421</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>26.4046748347519</v>
+        <v>26.40467483475189</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>391.6901465413808</v>
+        <v>391.6901465413807</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>202.8459835493365</v>
+        <v>202.8459835493364</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>372.102040301957</v>
+        <v>372.1020403019569</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>223.0105605218072</v>
+        <v>223.0105605218071</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>240.5911008392969</v>
+        <v>240.5911008392968</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>535.2614281586172</v>
+        <v>535.261428158617</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>31.10989519193516</v>
+        <v>31.10989519193515</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>149.0047571290996</v>
+        <v>149.0047571290995</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>188.309964825614</v>
+        <v>188.3099648256139</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>477.0850685581081</v>
+        <v>477.085068558108</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>191.275451021675</v>
+        <v>191.2754510216749</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>13.7155194596239</v>
+        <v>13.71551945962389</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>226.4910106320312</v>
+        <v>226.4910106320311</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>516.1827966128022</v>
+        <v>516.1827966128021</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>116.079207723477</v>
+        <v>116.0792077234769</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>192.4343125227497</v>
+        <v>192.4343125227496</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>198.3595348610932</v>
+        <v>198.3595348610931</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>516.9011137285612</v>
+        <v>516.9011137285611</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>83.40716769700676</v>
+        <v>83.40716769700674</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>50.39398418940361</v>
+        <v>50.3939841894036</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>51.87541432918092</v>
+        <v>51.87541432918091</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>72.02567683291025</v>
+        <v>72.02567683291024</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>88.75509870339512</v>
+        <v>88.75509870339511</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>39.5471231853774</v>
+        <v>39.54712318537739</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>34.99753820327525</v>
+        <v>34.99753820327524</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>531.2938324372199</v>
+        <v>531.2938324372197</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>336.2919831589659</v>
+        <v>336.2919831589658</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>945</v>
       </c>
       <c r="B945">
-        <v>276.7082964308051</v>
+        <v>276.708296430805</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>70.3194650164032</v>
+        <v>70.31946501640319</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>175.415803328232</v>
+        <v>175.4158033282319</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>219.8504399875504</v>
+        <v>219.8504399875503</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>291.9478732127796</v>
+        <v>291.9478732127795</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>376.4689453135304</v>
+        <v>376.4689453135303</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>173.2422917920767</v>
+        <v>173.2422917920766</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>455.2128838717733</v>
+        <v>455.2128838717732</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>619.3300278827787</v>
+        <v>619.3300278827786</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>185.9236866461009</v>
+        <v>185.9236866461008</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>72.71411916620119</v>
+        <v>72.71411916620117</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>94.2417402323819</v>
+        <v>94.24174023238189</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>63.16718354628853</v>
+        <v>63.16718354628852</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>12.50926837159767</v>
+        <v>12.50926837159766</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>17.36100666384928</v>
+        <v>17.36100666384927</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>1103</v>
       </c>
       <c r="B1103">
-        <v>59.65009076410068</v>
+        <v>59.65009076410067</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>1113</v>
       </c>
       <c r="B1113">
-        <v>243.5645995975549</v>
+        <v>243.5645995975548</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>1121</v>
       </c>
       <c r="B1121">
-        <v>92.28836314549631</v>
+        <v>92.28836314549629</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>114.9741130351551</v>
+        <v>114.974113035155</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>197.2063765224308</v>
+        <v>197.2063765224307</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>206.6714398169831</v>
+        <v>206.671439816983</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>59.57835283525716</v>
+        <v>59.57835283525715</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>41.63813229343914</v>
+        <v>41.63813229343913</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>0.8017866782800951</v>
+        <v>0.801786678280095</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9887,7 +9887,7 @@
         <v>1193</v>
       </c>
       <c r="B1193">
-        <v>7.41752110551085</v>
+        <v>7.417521105510849</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>7.953105292804345</v>
+        <v>7.953105292804344</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>184.3974547366435</v>
+        <v>184.3974547366434</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>63.79879266454914</v>
+        <v>63.79879266454913</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>98.30042243259514</v>
+        <v>98.30042243259513</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>97.58708752449343</v>
+        <v>97.58708752449341</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10343,7 +10343,7 @@
         <v>1250</v>
       </c>
       <c r="B1250">
-        <v>230.7843929121356</v>
+        <v>230.7843929121355</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>302.3810263465003</v>
+        <v>302.3810263465002</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>255.2518037057075</v>
+        <v>255.2518037057074</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>181.1657662547456</v>
+        <v>181.1657662547455</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>27.65382273070699</v>
+        <v>27.65382273070698</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10887,7 +10887,7 @@
         <v>1318</v>
       </c>
       <c r="B1318">
-        <v>43.39072055031708</v>
+        <v>43.39072055031707</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -10983,7 +10983,7 @@
         <v>1330</v>
       </c>
       <c r="B1330">
-        <v>30.97488322584465</v>
+        <v>30.97488322584464</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>1355</v>
       </c>
       <c r="B1355">
-        <v>148.227564972384</v>
+        <v>148.2275649723839</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>36.28512529666117</v>
+        <v>36.28512529666116</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>49.43375744620242</v>
+        <v>49.43375744620241</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>209.4652567214378</v>
+        <v>209.4652567214377</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>3.728068761499376</v>
+        <v>3.728068761499375</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>190.5528550687516</v>
+        <v>190.5528550687515</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>83.65607879156261</v>
+        <v>83.65607879156259</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>433.1900606715665</v>
+        <v>433.1900606715664</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>295.0085312979355</v>
+        <v>295.0085312979354</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11847,7 +11847,7 @@
         <v>1438</v>
       </c>
       <c r="B1438">
-        <v>219.328248941574</v>
+        <v>219.3282489415739</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>92.41467676315935</v>
+        <v>92.41467676315932</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>267.9378525278257</v>
+        <v>267.9378525278256</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12103,7 +12103,7 @@
         <v>1470</v>
       </c>
       <c r="B1470">
-        <v>337.3470975123545</v>
+        <v>337.3470975123544</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12175,7 +12175,7 @@
         <v>1479</v>
       </c>
       <c r="B1479">
-        <v>25.26407165938581</v>
+        <v>25.2640716593858</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>23.46755791523331</v>
+        <v>23.4675579152333</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>16.88807792876147</v>
+        <v>16.88807792876146</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1537</v>
       </c>
       <c r="B1537">
-        <v>130.7086662864559</v>
+        <v>130.7086662864558</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>46.98579367447194</v>
+        <v>46.98579367447193</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>26.73320746909127</v>
+        <v>26.73320746909126</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>207.8069728633803</v>
+        <v>207.8069728633802</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -13263,7 +13263,7 @@
         <v>1615</v>
       </c>
       <c r="B1615">
-        <v>501.5767221879981</v>
+        <v>501.576722187998</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>74.94987019883699</v>
+        <v>74.94987019883698</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13463,7 +13463,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>20.99899711090571</v>
+        <v>20.9989971109057</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13607,7 +13607,7 @@
         <v>1658</v>
       </c>
       <c r="B1658">
-        <v>99.62295531663104</v>
+        <v>99.62295531663102</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13783,7 +13783,7 @@
         <v>1680</v>
       </c>
       <c r="B1680">
-        <v>77.74963644537655</v>
+        <v>77.74963644537654</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>140.797305622099</v>
+        <v>140.7973056220989</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13831,7 +13831,7 @@
         <v>1686</v>
       </c>
       <c r="B1686">
-        <v>423.4823755869481</v>
+        <v>423.482375586948</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>7.263736386117578</v>
+        <v>7.263736386117577</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>99.31497575423299</v>
+        <v>99.31497575423298</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>68.91342740132153</v>
+        <v>68.91342740132151</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>6.646599115746063</v>
+        <v>6.646599115746062</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>62.69639422978294</v>
+        <v>62.69639422978293</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14183,7 +14183,7 @@
         <v>1730</v>
       </c>
       <c r="B1730">
-        <v>81.5124341249573</v>
+        <v>81.51243412495728</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>53.87575898072238</v>
+        <v>53.87575898072237</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>2.692428978629847</v>
+        <v>2.692428978629846</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>6.507864561322477</v>
+        <v>6.507864561322476</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>20.39682226003491</v>
+        <v>20.3968222600349</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14911,7 +14911,7 @@
         <v>1821</v>
       </c>
       <c r="B1821">
-        <v>35.92054492456645</v>
+        <v>35.92054492456644</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>148.2884446192451</v>
+        <v>148.288444619245</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>192.9575029409679</v>
+        <v>192.9575029409678</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>74.88633239765521</v>
+        <v>74.8863323976552</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15055,7 +15055,7 @@
         <v>1839</v>
       </c>
       <c r="B1839">
-        <v>1.106223011820728</v>
+        <v>1.106223011820727</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>0.9453533879891284</v>
+        <v>0.9453533879891282</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>2.433356495714423</v>
+        <v>2.433356495714422</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>42.73298121824942</v>
+        <v>42.73298121824941</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>87.80050771626739</v>
+        <v>87.80050771626738</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>23.42078670817335</v>
+        <v>23.42078670817334</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>53.18858359353158</v>
+        <v>53.18858359353157</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>97.49389093419911</v>
+        <v>97.4938909341991</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>54.30676683444008</v>
+        <v>54.30676683444007</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>67.16531726991434</v>
+        <v>67.16531726991433</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>14.93818252581517</v>
+        <v>14.93818252581516</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>6.756028910871823</v>
+        <v>6.756028910871821</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>7.638058439537394</v>
+        <v>7.638058439537393</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>79.96436842311957</v>
+        <v>79.96436842311955</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>56.61516138542886</v>
+        <v>56.61516138542885</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>146.4833028637144</v>
+        <v>146.4833028637143</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>36.28075853818511</v>
+        <v>36.2807585381851</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>38.03919356228434</v>
+        <v>38.03919356228432</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>33.81576147768763</v>
+        <v>33.81576147768762</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16175,7 +16175,7 @@
         <v>1979</v>
       </c>
       <c r="B1979">
-        <v>38.5202139887496</v>
+        <v>38.52021398874959</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16199,7 +16199,7 @@
         <v>1982</v>
       </c>
       <c r="B1982">
-        <v>4.377461430385957</v>
+        <v>4.377461430385956</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>2.370223748015177</v>
+        <v>2.370223748015176</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>53.47901699284497</v>
+        <v>53.47901699284496</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16327,7 +16327,7 @@
         <v>1998</v>
       </c>
       <c r="B1998">
-        <v>73.61475577511136</v>
+        <v>73.61475577511135</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -16527,7 +16527,7 @@
         <v>2023</v>
       </c>
       <c r="B2023">
-        <v>219.5481606568543</v>
+        <v>219.5481606568542</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>1.937697786317217</v>
+        <v>1.937697786317216</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>8.891804620089083</v>
+        <v>8.891804620089081</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>57.59138980734097</v>
+        <v>57.59138980734096</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16743,7 +16743,7 @@
         <v>2050</v>
       </c>
       <c r="B2050">
-        <v>36.37190363120879</v>
+        <v>36.37190363120878</v>
       </c>
     </row>
     <row r="2051" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>6.970636040352366</v>
+        <v>6.970636040352365</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>7.382655821475192</v>
+        <v>7.38265582147519</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -17039,7 +17039,7 @@
         <v>2087</v>
       </c>
       <c r="B2087">
-        <v>38.81317952183702</v>
+        <v>38.81317952183701</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17079,7 +17079,7 @@
         <v>2092</v>
       </c>
       <c r="B2092">
-        <v>182.2235035939302</v>
+        <v>182.2235035939301</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>42.48193656653211</v>
+        <v>42.4819365665321</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>12.33245861397328</v>
+        <v>12.33245861397327</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>61.46511780576542</v>
+        <v>61.46511780576541</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>477.7327555535497</v>
+        <v>477.7327555535496</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17399,7 +17399,7 @@
         <v>2132</v>
       </c>
       <c r="B2132">
-        <v>2.095868225882745</v>
+        <v>2.095868225882744</v>
       </c>
     </row>
     <row r="2133" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>74.31828159554908</v>
+        <v>74.31828159554907</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>0.4895977658608581</v>
+        <v>0.489597765860858</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17623,7 +17623,7 @@
         <v>2160</v>
       </c>
       <c r="B2160">
-        <v>51.45360304465641</v>
+        <v>51.4536030446564</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>1.246741782727683</v>
+        <v>1.246741782727682</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>0.4614432810826748</v>
+        <v>0.4614432810826747</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17887,7 +17887,7 @@
         <v>2193</v>
       </c>
       <c r="B2193">
-        <v>91.22266892761205</v>
+        <v>91.22266892761203</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>45.15154996480217</v>
+        <v>45.15154996480216</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -17991,7 +17991,7 @@
         <v>2206</v>
       </c>
       <c r="B2206">
-        <v>18.39467407862862</v>
+        <v>18.39467407862861</v>
       </c>
     </row>
     <row r="2207" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>48.49462595636408</v>
+        <v>48.49462595636407</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>192.9475238721015</v>
+        <v>192.9475238721014</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>472.4730096226946</v>
+        <v>472.4730096226945</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>89.89282978258233</v>
+        <v>89.89282978258231</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>5.283426070779001</v>
+        <v>5.283426070779</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18359,7 +18359,7 @@
         <v>2252</v>
       </c>
       <c r="B2252">
-        <v>15.10313462921532</v>
+        <v>15.10313462921531</v>
       </c>
     </row>
     <row r="2253" spans="1:2">
@@ -18375,7 +18375,7 @@
         <v>2254</v>
       </c>
       <c r="B2254">
-        <v>51.17250688863477</v>
+        <v>51.17250688863476</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>220.6719415546012</v>
+        <v>220.6719415546011</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>31.55733260808021</v>
+        <v>31.5573326080802</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>51.48402381846946</v>
+        <v>51.48402381846945</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>8.261986165874692</v>
+        <v>8.26198616587469</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>0.6157950050144455</v>
+        <v>0.6157950050144454</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>1.061875502250493</v>
+        <v>1.061875502250492</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19087,7 +19087,7 @@
         <v>2343</v>
       </c>
       <c r="B2343">
-        <v>0.9458516087548526</v>
+        <v>0.9458516087548524</v>
       </c>
     </row>
     <row r="2344" spans="1:2">
@@ -19095,7 +19095,7 @@
         <v>2344</v>
       </c>
       <c r="B2344">
-        <v>0.8386081235775065</v>
+        <v>0.8386081235775064</v>
       </c>
     </row>
     <row r="2345" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>6.861115393204621</v>
+        <v>6.86111539320462</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>59.7724244770587</v>
+        <v>59.77242447705869</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19255,7 +19255,7 @@
         <v>2364</v>
       </c>
       <c r="B2364">
-        <v>6.284527431742291</v>
+        <v>6.28452743174229</v>
       </c>
     </row>
     <row r="2365" spans="1:2">
@@ -19271,7 +19271,7 @@
         <v>2366</v>
       </c>
       <c r="B2366">
-        <v>0.691222698234716</v>
+        <v>0.6912226982347159</v>
       </c>
     </row>
     <row r="2367" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>13.89385318664933</v>
+        <v>13.89385318664932</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>0.7869016002264854</v>
+        <v>0.7869016002264853</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>81.02377626722452</v>
+        <v>81.02377626722451</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19647,7 +19647,7 @@
         <v>2413</v>
       </c>
       <c r="B2413">
-        <v>4.228845106680789</v>
+        <v>4.228845106680788</v>
       </c>
     </row>
     <row r="2414" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>0.9898093338436678</v>
+        <v>0.9898093338436676</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>0.767608733751409</v>
+        <v>0.7676087337514089</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>0.0928607308840019</v>
+        <v>0.0928607308840018</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>0.6524347462678869</v>
+        <v>0.6524347462678868</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -19983,7 +19983,7 @@
         <v>2455</v>
       </c>
       <c r="B2455">
-        <v>63.25926646663592</v>
+        <v>63.25926646663591</v>
       </c>
     </row>
     <row r="2456" spans="1:2">
@@ -20119,7 +20119,7 @@
         <v>2472</v>
       </c>
       <c r="B2472">
-        <v>8.397921305736984</v>
+        <v>8.397921305736983</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>0.8431331404144377</v>
+        <v>0.8431331404144375</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20231,7 +20231,7 @@
         <v>2486</v>
       </c>
       <c r="B2486">
-        <v>0.89881077633932</v>
+        <v>0.8988107763393199</v>
       </c>
     </row>
     <row r="2487" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>44.32054703467793</v>
+        <v>44.32054703467792</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>0.8787061030871518</v>
+        <v>0.8787061030871517</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>0.8310351679384974</v>
+        <v>0.8310351679384973</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>0.7602995420471951</v>
+        <v>0.760299542047195</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>2.837982709981004</v>
+        <v>2.837982709981003</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>8.65019685581667</v>
+        <v>8.650196855816668</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>41.6990265938522</v>
+        <v>41.69902659385219</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21503,7 +21503,7 @@
         <v>2645</v>
       </c>
       <c r="B2645">
-        <v>135.4744321895162</v>
+        <v>135.4744321895161</v>
       </c>
     </row>
     <row r="2646" spans="1:2">
@@ -21567,7 +21567,7 @@
         <v>2653</v>
       </c>
       <c r="B2653">
-        <v>1.870487805021011</v>
+        <v>1.87048780502101</v>
       </c>
     </row>
     <row r="2654" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>8.68416378919752</v>
+        <v>8.684163789197518</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>28.38513168560981</v>
+        <v>28.3851316856098</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>6.878904805251365</v>
+        <v>6.878904805251364</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>1.887277844825919</v>
+        <v>1.887277844825918</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>0.8226474748120096</v>
+        <v>0.8226474748120095</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>0.5049555381927248</v>
+        <v>0.5049555381927247</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>0.8360144448853536</v>
+        <v>0.8360144448853535</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22263,7 +22263,7 @@
         <v>2740</v>
       </c>
       <c r="B2740">
-        <v>2.027483029721507</v>
+        <v>2.027483029721506</v>
       </c>
     </row>
     <row r="2741" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>45.91907370795237</v>
+        <v>45.91907370795236</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>1.740238243308749</v>
+        <v>1.740238243308748</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>0.7428207853014325</v>
+        <v>0.7428207853014324</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>9.345865441707879</v>
+        <v>9.345865441707877</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22671,7 +22671,7 @@
         <v>2791</v>
       </c>
       <c r="B2791">
-        <v>0.8409292462037044</v>
+        <v>0.8409292462037042</v>
       </c>
     </row>
     <row r="2792" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>0.0416899413916537</v>
+        <v>0.0416899413916536</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>0.6943274928182943</v>
+        <v>0.6943274928182942</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>0.2956793709054313</v>
+        <v>0.2956793709054312</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22935,7 +22935,7 @@
         <v>2824</v>
       </c>
       <c r="B2824">
-        <v>0.5101722026808967</v>
+        <v>0.5101722026808966</v>
       </c>
     </row>
     <row r="2825" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>0.5850811601627366</v>
+        <v>0.5850811601627365</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>80.35459837251793</v>
+        <v>80.3545983725179</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>0.7464577968912197</v>
+        <v>0.7464577968912196</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>55.07102869692998</v>
+        <v>55.07102869692996</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23855,7 +23855,7 @@
         <v>2939</v>
       </c>
       <c r="B2939">
-        <v>0.8172930669356668</v>
+        <v>0.8172930669356667</v>
       </c>
     </row>
     <row r="2940" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>0.8854438062659762</v>
+        <v>0.8854438062659761</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -24231,7 +24231,7 @@
         <v>2986</v>
       </c>
       <c r="B2986">
-        <v>0.8528074154006487</v>
+        <v>0.8528074154006486</v>
       </c>
     </row>
     <row r="2987" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>0.6846579069687019</v>
+        <v>0.6846579069687018</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>0.6006871929714532</v>
+        <v>0.6006871929714531</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24447,7 +24447,7 @@
         <v>3013</v>
       </c>
       <c r="B3013">
-        <v>0.4944694564294218</v>
+        <v>0.4944694564294217</v>
       </c>
     </row>
     <row r="3014" spans="1:2">
@@ -24775,7 +24775,7 @@
         <v>3054</v>
       </c>
       <c r="B3054">
-        <v>0.674224577992358</v>
+        <v>0.6742245779923579</v>
       </c>
     </row>
     <row r="3055" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>1.521633624860865</v>
+        <v>1.521633624860864</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>0.615572271025063</v>
+        <v>0.6155722710250628</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>25.34991216660972</v>
+        <v>25.34991216660971</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>38.16253837032574</v>
+        <v>38.16253837032573</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>0.8597180304922832</v>
+        <v>0.8597180304922831</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25303,7 +25303,7 @@
         <v>3120</v>
       </c>
       <c r="B3120">
-        <v>0.1311443075932948</v>
+        <v>0.1311443075932947</v>
       </c>
     </row>
     <row r="3121" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>6.857217548390425</v>
+        <v>6.857217548390424</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>0.8918181013568605</v>
+        <v>0.8918181013568603</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25503,7 +25503,7 @@
         <v>3145</v>
       </c>
       <c r="B3145">
-        <v>6.105431720016342</v>
+        <v>6.105431720016341</v>
       </c>
     </row>
     <row r="3146" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>45.07168810676696</v>
+        <v>45.07168810676695</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>59.82781490336569</v>
+        <v>59.82781490336568</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>0.6509752524953534</v>
+        <v>0.6509752524953533</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>0.7985218669094077</v>
+        <v>0.7985218669094076</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25735,7 +25735,7 @@
         <v>3174</v>
       </c>
       <c r="B3174">
-        <v>72.78419245154511</v>
+        <v>72.7841924515451</v>
       </c>
     </row>
     <row r="3175" spans="1:2">
@@ -25743,7 +25743,7 @@
         <v>3175</v>
       </c>
       <c r="B3175">
-        <v>1.803923752294014</v>
+        <v>1.803923752294013</v>
       </c>
     </row>
     <row r="3176" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>0.6272998017081353</v>
+        <v>0.6272998017081352</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25815,7 +25815,7 @@
         <v>3184</v>
       </c>
       <c r="B3184">
-        <v>0.7939470279959041</v>
+        <v>0.793947027995904</v>
       </c>
     </row>
     <row r="3185" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>0.7146683813276237</v>
+        <v>0.7146683813276236</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>0.6536861596029708</v>
+        <v>0.6536861596029707</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26407,7 +26407,7 @@
         <v>3258</v>
       </c>
       <c r="B3258">
-        <v>0.8165633200494001</v>
+        <v>0.8165633200494</v>
       </c>
     </row>
     <row r="3259" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>0.4391581593028661</v>
+        <v>0.439158159302866</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>0.8832135356617633</v>
+        <v>0.8832135356617632</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>0.8269644112114912</v>
+        <v>0.8269644112114911</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>0.5215814582159829</v>
+        <v>0.5215814582159828</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>0.259400400100582</v>
+        <v>0.2594004001005819</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>0.5888559151406947</v>
+        <v>0.5888559151406946</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27175,7 +27175,7 @@
         <v>3354</v>
       </c>
       <c r="B3354">
-        <v>0.2187977522623619</v>
+        <v>0.2187977522623618</v>
       </c>
     </row>
     <row r="3355" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>51.91390041797792</v>
+        <v>51.91390041797791</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27487,7 +27487,7 @@
         <v>3393</v>
       </c>
       <c r="B3393">
-        <v>0.7711314476361184</v>
+        <v>0.7711314476361183</v>
       </c>
     </row>
     <row r="3394" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>74.88844250913357</v>
+        <v>74.88844250913355</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>0.4734181637223773</v>
+        <v>0.4734181637223772</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -28079,7 +28079,7 @@
         <v>3467</v>
       </c>
       <c r="B3467">
-        <v>0.4088047918287106</v>
+        <v>0.4088047918287105</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>0.8321459071750239</v>
+        <v>0.8321459071750238</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>0.8373420566904896</v>
+        <v>0.8373420566904894</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>0.883231119924083</v>
+        <v>0.8832311199240829</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>0.4049831454845666</v>
+        <v>0.4049831454845665</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>0.2830907975107719</v>
+        <v>0.2830907975107718</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>0.7415107577586162</v>
+        <v>0.7415107577586161</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>0.0137374118662119</v>
+        <v>0.0137374118662118</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>0.2604736262441599</v>
+        <v>0.2604736262441598</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30159,7 +30159,7 @@
         <v>3727</v>
       </c>
       <c r="B3727">
-        <v>0.5559997209963713</v>
+        <v>0.5559997209963712</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -30255,7 +30255,7 @@
         <v>3739</v>
       </c>
       <c r="B3739">
-        <v>0.3684635633569764</v>
+        <v>0.3684635633569763</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -30735,7 +30735,7 @@
         <v>3799</v>
       </c>
       <c r="B3799">
-        <v>1.271154600248173</v>
+        <v>1.271154600248172</v>
       </c>
     </row>
     <row r="3800" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>0.4058330514966845</v>
+        <v>0.4058330514966844</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>0.1910090494475318</v>
+        <v>0.1910090494475317</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>0.9913684717693462</v>
+        <v>0.9913684717693459</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>0.5401123399905398</v>
+        <v>0.5401123399905396</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>0.982582202030279</v>
+        <v>0.9825822020302788</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>1.114302980356621</v>
+        <v>1.11430298035662</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -33415,7 +33415,7 @@
         <v>4134</v>
       </c>
       <c r="B4134">
-        <v>0.2410336381076755</v>
+        <v>0.2410336381076754</v>
       </c>
     </row>
     <row r="4135" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>0.5470698464483601</v>
+        <v>0.54706984644836</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>0.3687038816086787</v>
+        <v>0.3687038816086786</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>0.8685365380456032</v>
+        <v>0.868536538045603</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>0.4988332841950892</v>
+        <v>0.4988332841950891</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>2.238816555700203</v>
+        <v>2.238816555700202</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>0.419226397963508</v>
+        <v>0.4192263979635079</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34855,7 +34855,7 @@
         <v>4314</v>
       </c>
       <c r="B4314">
-        <v>1.73983087456501</v>
+        <v>1.739830874565009</v>
       </c>
     </row>
     <row r="4315" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>0.8874073822250071</v>
+        <v>0.887407382225007</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35239,7 +35239,7 @@
         <v>4362</v>
       </c>
       <c r="B4362">
-        <v>0.2074896062356139</v>
+        <v>0.2074896062356138</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35447,7 +35447,7 @@
         <v>4388</v>
       </c>
       <c r="B4388">
-        <v>0.0319526561321305</v>
+        <v>0.0319526561321304</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>2.058135329655097</v>
+        <v>2.058135329655096</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>0.3523065569955764</v>
+        <v>0.3523065569955763</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36503,7 +36503,7 @@
         <v>4520</v>
       </c>
       <c r="B4520">
-        <v>0.8744448501850158</v>
+        <v>0.8744448501850157</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>0.2827487836086541</v>
+        <v>0.282748783608654</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>0.5092197218052473</v>
+        <v>0.5092197218052472</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>0.6051037735240796</v>
+        <v>0.6051037735240795</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>0.5345879509117734</v>
+        <v>0.5345879509117732</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>0.284719393272613</v>
+        <v>0.2847193932726129</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>0.7430933413673875</v>
+        <v>0.7430933413673874</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>0.968253958950126</v>
+        <v>0.9682539589501258</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>0.5986650028046899</v>
+        <v>0.5986650028046898</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>0.779633438467684</v>
+        <v>0.7796334384676838</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>0.4416932237872867</v>
+        <v>0.4416932237872866</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>0.2881008469166876</v>
+        <v>0.2881008469166875</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>0.6910644398738389</v>
+        <v>0.6910644398738388</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>0.2690905009228807</v>
+        <v>0.2690905009228806</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>0.2375279223432085</v>
+        <v>0.2375279223432084</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>0.2433272120562392</v>
+        <v>0.2433272120562391</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -40351,7 +40351,7 @@
         <v>5001</v>
       </c>
       <c r="B5001">
-        <v>0.8826010171909611</v>
+        <v>0.882601017190961</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>0.4161755284510434</v>
+        <v>0.4161755284510433</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>0.742694764754808</v>
+        <v>0.7426947647548079</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>0.6123631431517211</v>
+        <v>0.612363143151721</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>0.5605862827514213</v>
+        <v>0.5605862827514212</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>0.6806955865260005</v>
+        <v>0.6806955865260004</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>0.7259047249498995</v>
+        <v>0.7259047249498994</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41879,7 +41879,7 @@
         <v>5192</v>
       </c>
       <c r="B5192">
-        <v>0.4475282681670341</v>
+        <v>0.447528268167034</v>
       </c>
     </row>
     <row r="5193" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>0.3761508167010635</v>
+        <v>0.3761508167010634</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>0.4656986725640375</v>
+        <v>0.4656986725640374</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>0.1517091023761614</v>
+        <v>0.1517091023761613</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>0.941352968311401</v>
+        <v>0.9413529683114008</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>0.8343996234623297</v>
+        <v>0.8343996234623295</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>0.6705758435610242</v>
+        <v>0.6705758435610241</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>0.2382236729889905</v>
+        <v>0.2382236729889904</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>0.06988952980268701</v>
+        <v>0.06988952980268689</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>0.2648866899443224</v>
+        <v>0.2648866899443223</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -44175,7 +44175,7 @@
         <v>5479</v>
       </c>
       <c r="B5479">
-        <v>0.8382036855441539</v>
+        <v>0.8382036855441538</v>
       </c>
     </row>
     <row r="5480" spans="1:2">
@@ -44271,7 +44271,7 @@
         <v>5491</v>
       </c>
       <c r="B5491">
-        <v>0.2451876270096614</v>
+        <v>0.2451876270096613</v>
       </c>
     </row>
     <row r="5492" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>0.4176350222235769</v>
+        <v>0.4176350222235768</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44559,7 +44559,7 @@
         <v>5527</v>
       </c>
       <c r="B5527">
-        <v>0.0813046467585464</v>
+        <v>0.0813046467585463</v>
       </c>
     </row>
     <row r="5528" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>0.5813884650756036</v>
+        <v>0.5813884650756035</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44615,7 +44615,7 @@
         <v>5534</v>
       </c>
       <c r="B5534">
-        <v>0.5355873231536086</v>
+        <v>0.5355873231536085</v>
       </c>
     </row>
     <row r="5535" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>0.0369035051882366</v>
+        <v>0.0369035051882365</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>0.4411422502346034</v>
+        <v>0.4411422502346033</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>0.6929869858874573</v>
+        <v>0.6929869858874572</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>0.648871002437765</v>
+        <v>0.6488710024377649</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45791,7 +45791,7 @@
         <v>5681</v>
       </c>
       <c r="B5681">
-        <v>0.2797342549049835</v>
+        <v>0.2797342549049834</v>
       </c>
     </row>
     <row r="5682" spans="1:2">
@@ -45911,7 +45911,7 @@
         <v>5696</v>
       </c>
       <c r="B5696">
-        <v>0.8722409559742825</v>
+        <v>0.8722409559742824</v>
       </c>
     </row>
     <row r="5697" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>0.6283267226276047</v>
+        <v>0.6283267226276046</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>0.4288977422393324</v>
+        <v>0.4288977422393323</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -46087,7 +46087,7 @@
         <v>5718</v>
       </c>
       <c r="B5718">
-        <v>0.2943576205210686</v>
+        <v>0.2943576205210685</v>
       </c>
     </row>
     <row r="5719" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>0.2838237681784639</v>
+        <v>0.2838237681784638</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>0.2322546951445749</v>
+        <v>0.2322546951445748</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>1.89864020899482</v>
+        <v>1.898640208994819</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46575,7 +46575,7 @@
         <v>5779</v>
       </c>
       <c r="B5779">
-        <v>0.2221792059064365</v>
+        <v>0.2221792059064364</v>
       </c>
     </row>
     <row r="5780" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>0.8797582281159461</v>
+        <v>0.879758228115946</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>0.61371420063995</v>
+        <v>0.6137142006399499</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>0.5330346744068682</v>
+        <v>0.5330346744068681</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>0.7266344718361664</v>
+        <v>0.7266344718361663</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>0.8667458739993823</v>
+        <v>0.8667458739993822</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>0.6353955960801163</v>
+        <v>0.6353955960801162</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>1.700193016586063</v>
+        <v>1.700193016586062</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47815,7 +47815,7 @@
         <v>5934</v>
       </c>
       <c r="B5934">
-        <v>0.164469708470515</v>
+        <v>0.1644697084705149</v>
       </c>
     </row>
     <row r="5935" spans="1:2">
@@ -48015,7 +48015,7 @@
         <v>5959</v>
       </c>
       <c r="B5959">
-        <v>0.7761869230530266</v>
+        <v>0.7761869230530265</v>
       </c>
     </row>
     <row r="5960" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>0.5633880418810238</v>
+        <v>0.5633880418810236</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>0.986866900615508</v>
+        <v>0.9868669006155076</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>0.7083614925756315</v>
+        <v>0.7083614925756314</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48975,7 +48975,7 @@
         <v>6079</v>
       </c>
       <c r="B6079">
-        <v>0.8727215924776871</v>
+        <v>0.872721592477687</v>
       </c>
     </row>
     <row r="6080" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>0.2562856411016892</v>
+        <v>0.2562856411016891</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49359,7 +49359,7 @@
         <v>6127</v>
       </c>
       <c r="B6127">
-        <v>0.8467818748457715</v>
+        <v>0.8467818748457714</v>
       </c>
     </row>
     <row r="6128" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>0.09943196971286659</v>
+        <v>0.0994319697128665</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>0.9356908358444638</v>
+        <v>0.9356908358444636</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>0.5811774539277674</v>
+        <v>0.5811774539277673</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>0.9049271689161824</v>
+        <v>0.9049271689161822</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50671,7 +50671,7 @@
         <v>6291</v>
       </c>
       <c r="B6291">
-        <v>7.366516399376111</v>
+        <v>7.36651639937611</v>
       </c>
     </row>
     <row r="6292" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>0.7965084688738043</v>
+        <v>0.7965084688738042</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>0.3590325373328543</v>
+        <v>0.3590325373328542</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>0.8074224343535528</v>
+        <v>0.8074224343535527</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>0.8143770101009865</v>
+        <v>0.8143770101009864</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>1.061277637331624</v>
+        <v>1.061277637331623</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51295,7 +51295,7 @@
         <v>6369</v>
       </c>
       <c r="B6369">
-        <v>0.5665502783881797</v>
+        <v>0.5665502783881796</v>
       </c>
     </row>
     <row r="6370" spans="1:2">
@@ -51311,7 +51311,7 @@
         <v>6371</v>
       </c>
       <c r="B6371">
-        <v>0.2978012052253394</v>
+        <v>0.2978012052253393</v>
       </c>
     </row>
     <row r="6372" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>0.598034900071568</v>
+        <v>0.5980349000715679</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>0.9658918063785156</v>
+        <v>0.9658918063785152</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>0.3862412525621736</v>
+        <v>0.3862412525621735</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>0.6898042344075951</v>
+        <v>0.689804234407595</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>0.4756103350915642</v>
+        <v>0.4756103350915641</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>0.718736207344243</v>
+        <v>0.7187362073442429</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>0.9187102998644254</v>
+        <v>0.9187102998644252</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>0.2177802096161297</v>
+        <v>0.2177802096161296</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>0.9054576274961594</v>
+        <v>0.9054576274961592</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>0.6218527833835755</v>
+        <v>0.6218527833835754</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>0.4736965812091056</v>
+        <v>0.4736965812091055</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52847,7 +52847,7 @@
         <v>6563</v>
       </c>
       <c r="B6563">
-        <v>0.8833630018914805</v>
+        <v>0.8833630018914804</v>
       </c>
     </row>
     <row r="6564" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>47.00331932258389</v>
+        <v>47.00331932258388</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>61.40219252305444</v>
+        <v>61.40219252305443</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53047,7 +53047,7 @@
         <v>6588</v>
       </c>
       <c r="B6588">
-        <v>0.8733927251562216</v>
+        <v>0.8733927251562215</v>
       </c>
     </row>
     <row r="6589" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>0.2158573705314726</v>
+        <v>0.2158573705314725</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53159,7 +53159,7 @@
         <v>6602</v>
       </c>
       <c r="B6602">
-        <v>71.45050235306738</v>
+        <v>71.45050235306736</v>
       </c>
     </row>
     <row r="6603" spans="1:2">
@@ -53263,7 +53263,7 @@
         <v>6615</v>
       </c>
       <c r="B6615">
-        <v>0.2928799563441381</v>
+        <v>0.292879956344138</v>
       </c>
     </row>
     <row r="6616" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>58.92008597531991</v>
+        <v>58.9200859753199</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>0.9424373311544481</v>
+        <v>0.9424373311544478</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>18.54647315381365</v>
+        <v>18.54647315381364</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>22.32184358095297</v>
+        <v>22.32184358095296</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53783,7 +53783,7 @@
         <v>6680</v>
       </c>
       <c r="B6680">
-        <v>0.4404127378051676</v>
+        <v>0.4404127378051675</v>
       </c>
     </row>
     <row r="6681" spans="1:2">
@@ -53831,7 +53831,7 @@
         <v>6686</v>
       </c>
       <c r="B6686">
-        <v>0.5448395758441472</v>
+        <v>0.5448395758441471</v>
       </c>
     </row>
     <row r="6687" spans="1:2">
@@ -53855,7 +53855,7 @@
         <v>6689</v>
       </c>
       <c r="B6689">
-        <v>0.2559632629591618</v>
+        <v>0.2559632629591617</v>
       </c>
     </row>
     <row r="6690" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>0.170969731036985</v>
+        <v>0.1709697310369849</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>52.72600026610851</v>
+        <v>52.7260002661085</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>7.86591237996543</v>
+        <v>7.865912379965429</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>3.792427161589407</v>
+        <v>3.792427161589406</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>3.558494927819535</v>
+        <v>3.558494927819534</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>0.0592120726511382</v>
+        <v>0.0592120726511381</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55143,7 +55143,7 @@
         <v>6850</v>
       </c>
       <c r="B6850">
-        <v>25.7912126752052</v>
+        <v>25.79121267520519</v>
       </c>
     </row>
     <row r="6851" spans="1:2">
@@ -55255,7 +55255,7 @@
         <v>6864</v>
       </c>
       <c r="B6864">
-        <v>46.36354524518617</v>
+        <v>46.36354524518616</v>
       </c>
     </row>
     <row r="6865" spans="1:2">
@@ -55319,7 +55319,7 @@
         <v>6872</v>
       </c>
       <c r="B6872">
-        <v>26.90543066496061</v>
+        <v>26.9054306649606</v>
       </c>
     </row>
     <row r="6873" spans="1:2">
@@ -55439,7 +55439,7 @@
         <v>6887</v>
       </c>
       <c r="B6887">
-        <v>45.15873020524938</v>
+        <v>45.15873020524937</v>
       </c>
     </row>
     <row r="6888" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>165.7560541149812</v>
+        <v>165.7560541149811</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>42.91547655402384</v>
+        <v>42.91547655402383</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>3.434499502072306</v>
+        <v>3.434499502072305</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>334.0370945875055</v>
+        <v>334.0370945875054</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>0.8695974552055572</v>
+        <v>0.8695974552055571</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55847,7 +55847,7 @@
         <v>6938</v>
       </c>
       <c r="B6938">
-        <v>69.93554195575683</v>
+        <v>69.93554195575682</v>
       </c>
     </row>
     <row r="6939" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>0.5946733752581224</v>
+        <v>0.5946733752581222</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>7.156264305530076</v>
+        <v>7.156264305530075</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>7.288764652819256</v>
+        <v>7.288764652819255</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>0.8314073681575973</v>
+        <v>0.8314073681575972</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>6.147018500402387</v>
+        <v>6.147018500402386</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56479,7 +56479,7 @@
         <v>7017</v>
       </c>
       <c r="B7017">
-        <v>0.8881459212424337</v>
+        <v>0.8881459212424336</v>
       </c>
     </row>
     <row r="7018" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>5.548450211040455</v>
+        <v>5.548450211040454</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>0.8145411298826368</v>
+        <v>0.8145411298826367</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>2.35408139520571</v>
+        <v>2.354081395205709</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>0.8391649585509631</v>
+        <v>0.839164958550963</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>0.9694555502086374</v>
+        <v>0.9694555502086372</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>0.0240841969648391</v>
+        <v>0.024084196964839</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>0.7272645745692883</v>
+        <v>0.7272645745692882</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57567,7 +57567,7 @@
         <v>7153</v>
       </c>
       <c r="B7153">
-        <v>13.06654295161222</v>
+        <v>13.06654295161221</v>
       </c>
     </row>
     <row r="7154" spans="1:2">
@@ -57727,7 +57727,7 @@
         <v>7173</v>
       </c>
       <c r="B7173">
-        <v>0.2052561118499758</v>
+        <v>0.2052561118499757</v>
       </c>
     </row>
     <row r="7174" spans="1:2">
@@ -57751,7 +57751,7 @@
         <v>7176</v>
       </c>
       <c r="B7176">
-        <v>65.18462303151512</v>
+        <v>65.1846230315151</v>
       </c>
     </row>
     <row r="7177" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>42.05231493882729</v>
+        <v>42.05231493882728</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57839,7 +57839,7 @@
         <v>7187</v>
       </c>
       <c r="B7187">
-        <v>18.3913066923944</v>
+        <v>18.39130669239439</v>
       </c>
     </row>
     <row r="7188" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>0.5757790853956255</v>
+        <v>0.5757790853956254</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -57935,7 +57935,7 @@
         <v>7199</v>
       </c>
       <c r="B7199">
-        <v>0.6832394431415809</v>
+        <v>0.6832394431415808</v>
       </c>
     </row>
     <row r="7200" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>21.11040513554243</v>
+        <v>21.11040513554242</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>0.7109463791366245</v>
+        <v>0.7109463791366244</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>94.76246885387538</v>
+        <v>94.76246885387536</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>35.65062649795935</v>
+        <v>35.65062649795934</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>0.2483903073201525</v>
+        <v>0.2483903073201524</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>86.81907142199827</v>
+        <v>86.81907142199826</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>384.882282155901</v>
+        <v>384.8822821559009</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>91.02171011640196</v>
+        <v>91.02171011640195</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>0.506045762456545</v>
+        <v>0.5060457624565449</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -58695,7 +58695,7 @@
         <v>7294</v>
       </c>
       <c r="B7294">
-        <v>2.754375404071695</v>
+        <v>2.754375404071694</v>
       </c>
     </row>
     <row r="7295" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>293.0716248034227</v>
+        <v>293.0716248034226</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>96.70810886534032</v>
+        <v>96.70810886534031</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>0.4431937475052328</v>
+        <v>0.4431937475052327</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>190.314353857489</v>
+        <v>190.3143538574889</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>6.877676837599374</v>
+        <v>6.877676837599373</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>70.9306060533237</v>
+        <v>70.93060605332369</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59207,7 +59207,7 @@
         <v>7358</v>
       </c>
       <c r="B7358">
-        <v>4.992025537038026</v>
+        <v>4.992025537038025</v>
       </c>
     </row>
     <row r="7359" spans="1:2">
@@ -59391,7 +59391,7 @@
         <v>7381</v>
       </c>
       <c r="B7381">
-        <v>2.448086861566723</v>
+        <v>2.448086861566722</v>
       </c>
     </row>
     <row r="7382" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>49.70338280177086</v>
+        <v>49.70338280177085</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>5.75380508783046</v>
+        <v>5.753805087830459</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>8.761897658421017</v>
+        <v>8.761897658421015</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>297.001121289794</v>
+        <v>297.0011212897939</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59767,7 +59767,7 @@
         <v>7428</v>
       </c>
       <c r="B7428">
-        <v>3.003890224967192</v>
+        <v>3.003890224967191</v>
       </c>
     </row>
     <row r="7429" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>0.3397631165408708</v>
+        <v>0.3397631165408707</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>1.723415965689588</v>
+        <v>1.723415965689587</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -60151,7 +60151,7 @@
         <v>7476</v>
       </c>
       <c r="B7476">
-        <v>30.12316017328705</v>
+        <v>30.12316017328704</v>
       </c>
     </row>
     <row r="7477" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>4.271709676795398</v>
+        <v>4.271709676795397</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60375,7 +60375,7 @@
         <v>7504</v>
       </c>
       <c r="B7504">
-        <v>95.69355554370247</v>
+        <v>95.69355554370246</v>
       </c>
     </row>
     <row r="7505" spans="1:2">
@@ -60519,7 +60519,7 @@
         <v>7522</v>
       </c>
       <c r="B7522">
-        <v>76.03426234898782</v>
+        <v>76.03426234898781</v>
       </c>
     </row>
     <row r="7523" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>101.6821984548123</v>
+        <v>101.6821984548122</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60543,7 +60543,7 @@
         <v>7525</v>
       </c>
       <c r="B7525">
-        <v>42.68598434648969</v>
+        <v>42.68598434648968</v>
       </c>
     </row>
     <row r="7526" spans="1:2">
@@ -60591,7 +60591,7 @@
         <v>7531</v>
       </c>
       <c r="B7531">
-        <v>163.175714844224</v>
+        <v>163.1757148442239</v>
       </c>
     </row>
     <row r="7532" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>257.641094655498</v>
+        <v>257.6410946554979</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>293.6096153090933</v>
+        <v>293.6096153090932</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>74.72593461819585</v>
+        <v>74.72593461819584</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>7.88754688403941</v>
+        <v>7.887546884039409</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -60911,7 +60911,7 @@
         <v>7571</v>
       </c>
       <c r="B7571">
-        <v>37.71162220095178</v>
+        <v>37.71162220095177</v>
       </c>
     </row>
     <row r="7572" spans="1:2">
@@ -60919,7 +60919,7 @@
         <v>7572</v>
       </c>
       <c r="B7572">
-        <v>24.83447347736408</v>
+        <v>24.83447347736407</v>
       </c>
     </row>
     <row r="7573" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>237.623492808916</v>
+        <v>237.6234928089159</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>509.258114111312</v>
+        <v>509.2581141113119</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>285.2686083990643</v>
+        <v>285.2686083990642</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>255.3753624556071</v>
+        <v>255.375362455607</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>84.73924590477185</v>
+        <v>84.73924590477183</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>247.3350464312447</v>
+        <v>247.3350464312446</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>194.3159223736879</v>
+        <v>194.3159223736878</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>22.34956810121033</v>
+        <v>22.34956810121032</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>87.38112599065339</v>
+        <v>87.38112599065337</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>58.18887666457024</v>
+        <v>58.18887666457023</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>7.815934975742512</v>
+        <v>7.81593497574251</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>163.177382418434</v>
+        <v>163.1773824184339</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>2.619674093282168</v>
+        <v>2.619674093282167</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>87.81053074578961</v>
+        <v>87.81053074578959</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>6.456589438540366</v>
+        <v>6.456589438540365</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>3.422131904240797</v>
+        <v>3.422131904240796</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>0.7787806017451795</v>
+        <v>0.7787806017451794</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>23.57668584718925</v>
+        <v>23.57668584718924</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62847,7 +62847,7 @@
         <v>7813</v>
       </c>
       <c r="B7813">
-        <v>0.6341529748761923</v>
+        <v>0.6341529748761922</v>
       </c>
     </row>
     <row r="7814" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>0.153988022772792</v>
+        <v>0.1539880227727919</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -63039,7 +63039,7 @@
         <v>7837</v>
       </c>
       <c r="B7837">
-        <v>0.7290376543531893</v>
+        <v>0.7290376543531892</v>
       </c>
     </row>
     <row r="7838" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>0.2103523241412579</v>
+        <v>0.2103523241412578</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>8.410875045645815</v>
+        <v>8.410875045645813</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>97.53228324026375</v>
+        <v>97.53228324026374</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>63.63715226388586</v>
+        <v>63.63715226388585</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>27.60632470747115</v>
+        <v>27.60632470747114</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>9.314618207565806</v>
+        <v>9.314618207565804</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>0.8679328117059608</v>
+        <v>0.8679328117059607</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>0.4669999079756939</v>
+        <v>0.4669999079756938</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>43.44570067716995</v>
+        <v>43.44570067716994</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>30.02879716025887</v>
+        <v>30.02879716025886</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64463,7 +64463,7 @@
         <v>8015</v>
       </c>
       <c r="B8015">
-        <v>52.06366558015464</v>
+        <v>52.06366558015463</v>
       </c>
     </row>
     <row r="8016" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>282.5921371384896</v>
+        <v>282.5921371384895</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64767,7 +64767,7 @@
         <v>8053</v>
       </c>
       <c r="B8053">
-        <v>23.1156528655607</v>
+        <v>23.11565286556069</v>
       </c>
     </row>
     <row r="8054" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>208.303142131834</v>
+        <v>208.3031421318339</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>248.9050572924574</v>
+        <v>248.9050572924573</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>318.2634251446746</v>
+        <v>318.2634251446745</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>93.67620984120826</v>
+        <v>93.67620984120825</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>144.6666053171293</v>
+        <v>144.6666053171292</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>187.1957702815417</v>
+        <v>187.1957702815416</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65383,7 +65383,7 @@
         <v>8130</v>
       </c>
       <c r="B8130">
-        <v>24.99930249092799</v>
+        <v>24.99930249092798</v>
       </c>
     </row>
     <row r="8131" spans="1:2">
@@ -65615,7 +65615,7 @@
         <v>8159</v>
       </c>
       <c r="B8159">
-        <v>170.0283194544659</v>
+        <v>170.0283194544658</v>
       </c>
     </row>
     <row r="8160" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>153.2459669029015</v>
+        <v>153.2459669029014</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>273.5111551629446</v>
+        <v>273.5111551629445</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>208.4098199899067</v>
+        <v>208.4098199899066</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>358.1773560420405</v>
+        <v>358.1773560420404</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>62.55627696619895</v>
+        <v>62.55627696619894</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>232.9217248285682</v>
+        <v>232.9217248285681</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>335.3705678134147</v>
+        <v>335.3705678134145</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>318.5732012325396</v>
+        <v>318.5732012325395</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>76.55288085900295</v>
+        <v>76.55288085900294</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>75.2298116549663</v>
+        <v>75.22981165496628</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>259.3822003890812</v>
+        <v>259.382200389081</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>380.4170518108567</v>
+        <v>380.4170518108566</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66879,7 +66879,7 @@
         <v>8317</v>
       </c>
       <c r="B8317">
-        <v>248.3252455495698</v>
+        <v>248.3252455495697</v>
       </c>
     </row>
     <row r="8318" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>303.2108569924699</v>
+        <v>303.2108569924698</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>70.2974846885036</v>
+        <v>70.29748468850357</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>265.3310149460369</v>
+        <v>265.3310149460368</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>56.45647221012491</v>
+        <v>56.4564722101249</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67439,7 +67439,7 @@
         <v>8387</v>
       </c>
       <c r="B8387">
-        <v>86.3015372748262</v>
+        <v>86.30153727482619</v>
       </c>
     </row>
     <row r="8388" spans="1:2">
@@ -67463,7 +67463,7 @@
         <v>8390</v>
       </c>
       <c r="B8390">
-        <v>28.35276785081044</v>
+        <v>28.35276785081043</v>
       </c>
     </row>
     <row r="8391" spans="1:2">
@@ -67583,7 +67583,7 @@
         <v>8405</v>
       </c>
       <c r="B8405">
-        <v>198.3950843780828</v>
+        <v>198.3950843780827</v>
       </c>
     </row>
     <row r="8406" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>199.6294995929244</v>
+        <v>199.6294995929243</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>82.34742282120733</v>
+        <v>82.34742282120732</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>77.45182058659928</v>
+        <v>77.45182058659927</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>68.15386053687098</v>
+        <v>68.15386053687097</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>137.0619980059447</v>
+        <v>137.0619980059446</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>49.68131455255966</v>
+        <v>49.68131455255965</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>176.5154644794971</v>
+        <v>176.515464479497</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>196.3439974069075</v>
+        <v>196.3439974069074</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>382.0767131027959</v>
+        <v>382.0767131027958</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>167.9654598196676</v>
+        <v>167.9654598196675</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>247.2089907160957</v>
+        <v>247.2089907160956</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>265.4355533855274</v>
+        <v>265.4355533855273</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68815,7 +68815,7 @@
         <v>8559</v>
       </c>
       <c r="B8559">
-        <v>131.3415444023139</v>
+        <v>131.3415444023138</v>
       </c>
     </row>
     <row r="8560" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>331.6315675021732</v>
+        <v>331.6315675021731</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>352.716270307625</v>
+        <v>352.7162703076249</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68911,7 +68911,7 @@
         <v>8571</v>
       </c>
       <c r="B8571">
-        <v>391.4400397169872</v>
+        <v>391.4400397169871</v>
       </c>
     </row>
     <row r="8572" spans="1:2">
@@ -68967,7 +68967,7 @@
         <v>8578</v>
       </c>
       <c r="B8578">
-        <v>439.1136125049896</v>
+        <v>439.1136125049895</v>
       </c>
     </row>
     <row r="8579" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>364.6644834828094</v>
+        <v>364.6644834828093</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>209.3508417879444</v>
+        <v>209.3508417879443</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69631,7 +69631,7 @@
         <v>8661</v>
       </c>
       <c r="B8661">
-        <v>67.28392311926058</v>
+        <v>67.28392311926056</v>
       </c>
     </row>
     <row r="8662" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>495.5438548571543</v>
+        <v>495.5438548571542</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>87.1607922530774</v>
+        <v>87.16079225307739</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>23.48145534388663</v>
+        <v>23.48145534388662</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -70007,7 +70007,7 @@
         <v>8708</v>
       </c>
       <c r="B8708">
-        <v>33.52351689935531</v>
+        <v>33.5235168993553</v>
       </c>
     </row>
     <row r="8709" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>55.46922138644875</v>
+        <v>55.46922138644874</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>91.77697176729457</v>
+        <v>91.77697176729455</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
